--- a/Layout Liquidacion Batch_ENG_v2.xlsx
+++ b/Layout Liquidacion Batch_ENG_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zagade.rahul\Documents\Sharmila\POS_settlement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C46CE89-D281-4502-A723-D12414C01BD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BD25AC-F4AC-4DCC-A775-EC2E47AD1A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14745" yWindow="4530" windowWidth="28800" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19280" yWindow="-80" windowWidth="19360" windowHeight="10960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POS PROSA" sheetId="4" r:id="rId1"/>
@@ -10668,66 +10668,6 @@
     </xf>
     <xf numFmtId="0" fontId="54" fillId="5" borderId="48" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="54" fillId="5" borderId="49" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -10764,6 +10704,36 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -10772,6 +10742,36 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11168,8 +11168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -17234,12 +17234,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="J38" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C93" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
-      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
+      <selection pane="bottomRight" activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -24522,7 +24522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -55168,28 +55168,28 @@
       <c r="K1" s="227"/>
     </row>
     <row r="2" spans="1:11" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="488" t="s">
+      <c r="A2" s="518" t="s">
         <v>1441</v>
       </c>
-      <c r="B2" s="489"/>
-      <c r="C2" s="489"/>
-      <c r="D2" s="489"/>
-      <c r="E2" s="489"/>
-      <c r="F2" s="489"/>
-      <c r="G2" s="489"/>
-      <c r="H2" s="489"/>
-      <c r="I2" s="489"/>
-      <c r="J2" s="490"/>
+      <c r="B2" s="519"/>
+      <c r="C2" s="519"/>
+      <c r="D2" s="519"/>
+      <c r="E2" s="519"/>
+      <c r="F2" s="519"/>
+      <c r="G2" s="519"/>
+      <c r="H2" s="519"/>
+      <c r="I2" s="519"/>
+      <c r="J2" s="520"/>
       <c r="K2" s="227"/>
     </row>
     <row r="3" spans="1:11" ht="26.25" thickBot="1">
       <c r="A3" s="147" t="s">
         <v>811</v>
       </c>
-      <c r="B3" s="491" t="s">
+      <c r="B3" s="521" t="s">
         <v>812</v>
       </c>
-      <c r="C3" s="492"/>
+      <c r="C3" s="522"/>
       <c r="D3" s="148" t="s">
         <v>813</v>
       </c>
@@ -55245,29 +55245,29 @@
       <c r="K4" s="229"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="493">
+      <c r="A5" s="506">
         <v>2</v>
       </c>
-      <c r="B5" s="495">
+      <c r="B5" s="502">
         <v>3</v>
       </c>
-      <c r="C5" s="497" t="s">
+      <c r="C5" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="493">
+      <c r="D5" s="506">
         <v>6</v>
       </c>
-      <c r="E5" s="495">
+      <c r="E5" s="502">
         <v>4</v>
       </c>
-      <c r="F5" s="499"/>
-      <c r="G5" s="499" t="s">
+      <c r="F5" s="500"/>
+      <c r="G5" s="500" t="s">
         <v>819</v>
       </c>
-      <c r="H5" s="501" t="s">
+      <c r="H5" s="508" t="s">
         <v>1442</v>
       </c>
-      <c r="I5" s="495" t="s">
+      <c r="I5" s="502" t="s">
         <v>820</v>
       </c>
       <c r="J5" s="156" t="s">
@@ -55278,15 +55278,15 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A6" s="494"/>
-      <c r="B6" s="496"/>
-      <c r="C6" s="498"/>
-      <c r="D6" s="494"/>
-      <c r="E6" s="496"/>
-      <c r="F6" s="500"/>
-      <c r="G6" s="500"/>
-      <c r="H6" s="502"/>
-      <c r="I6" s="496"/>
+      <c r="A6" s="507"/>
+      <c r="B6" s="503"/>
+      <c r="C6" s="505"/>
+      <c r="D6" s="507"/>
+      <c r="E6" s="503"/>
+      <c r="F6" s="501"/>
+      <c r="G6" s="501"/>
+      <c r="H6" s="509"/>
+      <c r="I6" s="503"/>
       <c r="J6" s="155" t="s">
         <v>822</v>
       </c>
@@ -55324,29 +55324,29 @@
       <c r="K7" s="229"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="493">
+      <c r="A8" s="506">
         <v>4</v>
       </c>
-      <c r="B8" s="495">
+      <c r="B8" s="502">
         <v>25</v>
       </c>
-      <c r="C8" s="497" t="s">
+      <c r="C8" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="493">
+      <c r="D8" s="506">
         <v>43</v>
       </c>
-      <c r="E8" s="495">
+      <c r="E8" s="502">
         <v>19</v>
       </c>
-      <c r="F8" s="499"/>
-      <c r="G8" s="499" t="s">
+      <c r="F8" s="500"/>
+      <c r="G8" s="500" t="s">
         <v>824</v>
       </c>
-      <c r="H8" s="501" t="s">
+      <c r="H8" s="508" t="s">
         <v>1445</v>
       </c>
-      <c r="I8" s="495" t="s">
+      <c r="I8" s="502" t="s">
         <v>825</v>
       </c>
       <c r="J8" s="156" t="s">
@@ -55357,15 +55357,15 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A9" s="494"/>
-      <c r="B9" s="496"/>
-      <c r="C9" s="498"/>
-      <c r="D9" s="494"/>
-      <c r="E9" s="496"/>
-      <c r="F9" s="500"/>
-      <c r="G9" s="500"/>
-      <c r="H9" s="502"/>
-      <c r="I9" s="496"/>
+      <c r="A9" s="507"/>
+      <c r="B9" s="503"/>
+      <c r="C9" s="505"/>
+      <c r="D9" s="507"/>
+      <c r="E9" s="503"/>
+      <c r="F9" s="501"/>
+      <c r="G9" s="501"/>
+      <c r="H9" s="509"/>
+      <c r="I9" s="503"/>
       <c r="J9" s="155" t="s">
         <v>827</v>
       </c>
@@ -55403,29 +55403,29 @@
       <c r="K10" s="229"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="493">
+      <c r="A11" s="506">
         <v>6</v>
       </c>
-      <c r="B11" s="495">
+      <c r="B11" s="502">
         <v>48</v>
       </c>
-      <c r="C11" s="497" t="s">
+      <c r="C11" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="493">
+      <c r="D11" s="506">
         <v>66</v>
       </c>
-      <c r="E11" s="495">
+      <c r="E11" s="502">
         <v>19</v>
       </c>
-      <c r="F11" s="499"/>
-      <c r="G11" s="499" t="s">
+      <c r="F11" s="500"/>
+      <c r="G11" s="500" t="s">
         <v>828</v>
       </c>
-      <c r="H11" s="501" t="s">
+      <c r="H11" s="508" t="s">
         <v>1448</v>
       </c>
-      <c r="I11" s="495" t="s">
+      <c r="I11" s="502" t="s">
         <v>825</v>
       </c>
       <c r="J11" s="156" t="s">
@@ -55436,15 +55436,15 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A12" s="494"/>
-      <c r="B12" s="496"/>
-      <c r="C12" s="498"/>
-      <c r="D12" s="494"/>
-      <c r="E12" s="496"/>
-      <c r="F12" s="500"/>
-      <c r="G12" s="500"/>
-      <c r="H12" s="502"/>
-      <c r="I12" s="496"/>
+      <c r="A12" s="507"/>
+      <c r="B12" s="503"/>
+      <c r="C12" s="505"/>
+      <c r="D12" s="507"/>
+      <c r="E12" s="503"/>
+      <c r="F12" s="501"/>
+      <c r="G12" s="501"/>
+      <c r="H12" s="509"/>
+      <c r="I12" s="503"/>
       <c r="J12" s="155" t="s">
         <v>830</v>
       </c>
@@ -55482,29 +55482,29 @@
       <c r="K13" s="229"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="493">
+      <c r="A14" s="506">
         <v>8</v>
       </c>
-      <c r="B14" s="495">
+      <c r="B14" s="502">
         <v>70</v>
       </c>
-      <c r="C14" s="497" t="s">
+      <c r="C14" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="493">
+      <c r="D14" s="506">
         <v>88</v>
       </c>
-      <c r="E14" s="495">
+      <c r="E14" s="502">
         <v>19</v>
       </c>
-      <c r="F14" s="499"/>
-      <c r="G14" s="499" t="s">
+      <c r="F14" s="500"/>
+      <c r="G14" s="500" t="s">
         <v>832</v>
       </c>
-      <c r="H14" s="501" t="s">
+      <c r="H14" s="508" t="s">
         <v>1451</v>
       </c>
-      <c r="I14" s="495" t="s">
+      <c r="I14" s="502" t="s">
         <v>825</v>
       </c>
       <c r="J14" s="156" t="s">
@@ -55515,15 +55515,15 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A15" s="494"/>
-      <c r="B15" s="496"/>
-      <c r="C15" s="498"/>
-      <c r="D15" s="494"/>
-      <c r="E15" s="496"/>
-      <c r="F15" s="500"/>
-      <c r="G15" s="500"/>
-      <c r="H15" s="502"/>
-      <c r="I15" s="496"/>
+      <c r="A15" s="507"/>
+      <c r="B15" s="503"/>
+      <c r="C15" s="505"/>
+      <c r="D15" s="507"/>
+      <c r="E15" s="503"/>
+      <c r="F15" s="501"/>
+      <c r="G15" s="501"/>
+      <c r="H15" s="509"/>
+      <c r="I15" s="503"/>
       <c r="J15" s="155" t="s">
         <v>834</v>
       </c>
@@ -55561,29 +55561,29 @@
       <c r="K16" s="229"/>
     </row>
     <row r="17" spans="1:11" ht="25.5">
-      <c r="A17" s="493">
+      <c r="A17" s="506">
         <v>10</v>
       </c>
-      <c r="B17" s="495">
+      <c r="B17" s="502">
         <v>91</v>
       </c>
-      <c r="C17" s="497" t="s">
+      <c r="C17" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="493">
+      <c r="D17" s="506">
         <v>105</v>
       </c>
-      <c r="E17" s="495">
+      <c r="E17" s="502">
         <v>15</v>
       </c>
-      <c r="F17" s="499"/>
-      <c r="G17" s="499" t="s">
+      <c r="F17" s="500"/>
+      <c r="G17" s="500" t="s">
         <v>835</v>
       </c>
-      <c r="H17" s="501" t="s">
+      <c r="H17" s="508" t="s">
         <v>1454</v>
       </c>
-      <c r="I17" s="495" t="s">
+      <c r="I17" s="502" t="s">
         <v>836</v>
       </c>
       <c r="J17" s="156" t="s">
@@ -55594,15 +55594,15 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A18" s="494"/>
-      <c r="B18" s="496"/>
-      <c r="C18" s="498"/>
-      <c r="D18" s="494"/>
-      <c r="E18" s="496"/>
-      <c r="F18" s="500"/>
-      <c r="G18" s="500"/>
-      <c r="H18" s="502"/>
-      <c r="I18" s="496"/>
+      <c r="A18" s="507"/>
+      <c r="B18" s="503"/>
+      <c r="C18" s="505"/>
+      <c r="D18" s="507"/>
+      <c r="E18" s="503"/>
+      <c r="F18" s="501"/>
+      <c r="G18" s="501"/>
+      <c r="H18" s="509"/>
+      <c r="I18" s="503"/>
       <c r="J18" s="369" t="s">
         <v>864</v>
       </c>
@@ -55640,29 +55640,29 @@
       <c r="K19" s="229"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="493">
+      <c r="A20" s="506">
         <v>12</v>
       </c>
-      <c r="B20" s="495">
+      <c r="B20" s="502">
         <v>109</v>
       </c>
-      <c r="C20" s="497" t="s">
+      <c r="C20" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="493">
+      <c r="D20" s="506">
         <v>109</v>
       </c>
-      <c r="E20" s="495">
+      <c r="E20" s="502">
         <v>1</v>
       </c>
-      <c r="F20" s="499"/>
-      <c r="G20" s="499" t="s">
+      <c r="F20" s="500"/>
+      <c r="G20" s="500" t="s">
         <v>837</v>
       </c>
-      <c r="H20" s="501" t="s">
+      <c r="H20" s="508" t="s">
         <v>837</v>
       </c>
-      <c r="I20" s="495" t="s">
+      <c r="I20" s="502" t="s">
         <v>838</v>
       </c>
       <c r="J20" s="156" t="s">
@@ -55673,15 +55673,15 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="505"/>
-      <c r="B21" s="504"/>
-      <c r="C21" s="506"/>
-      <c r="D21" s="505"/>
-      <c r="E21" s="504"/>
-      <c r="F21" s="503"/>
-      <c r="G21" s="503"/>
-      <c r="H21" s="507"/>
-      <c r="I21" s="504"/>
+      <c r="A21" s="515"/>
+      <c r="B21" s="514"/>
+      <c r="C21" s="516"/>
+      <c r="D21" s="515"/>
+      <c r="E21" s="514"/>
+      <c r="F21" s="513"/>
+      <c r="G21" s="513"/>
+      <c r="H21" s="517"/>
+      <c r="I21" s="514"/>
       <c r="J21" s="156" t="s">
         <v>840</v>
       </c>
@@ -55690,15 +55690,15 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="505"/>
-      <c r="B22" s="504"/>
-      <c r="C22" s="506"/>
-      <c r="D22" s="505"/>
-      <c r="E22" s="504"/>
-      <c r="F22" s="503"/>
-      <c r="G22" s="503"/>
-      <c r="H22" s="507"/>
-      <c r="I22" s="504"/>
+      <c r="A22" s="515"/>
+      <c r="B22" s="514"/>
+      <c r="C22" s="516"/>
+      <c r="D22" s="515"/>
+      <c r="E22" s="514"/>
+      <c r="F22" s="513"/>
+      <c r="G22" s="513"/>
+      <c r="H22" s="517"/>
+      <c r="I22" s="514"/>
       <c r="J22" s="157" t="s">
         <v>853</v>
       </c>
@@ -55707,15 +55707,15 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="505"/>
-      <c r="B23" s="504"/>
-      <c r="C23" s="506"/>
-      <c r="D23" s="505"/>
-      <c r="E23" s="504"/>
-      <c r="F23" s="503"/>
-      <c r="G23" s="503"/>
-      <c r="H23" s="507"/>
-      <c r="I23" s="504"/>
+      <c r="A23" s="515"/>
+      <c r="B23" s="514"/>
+      <c r="C23" s="516"/>
+      <c r="D23" s="515"/>
+      <c r="E23" s="514"/>
+      <c r="F23" s="513"/>
+      <c r="G23" s="513"/>
+      <c r="H23" s="517"/>
+      <c r="I23" s="514"/>
       <c r="J23" s="157" t="s">
         <v>854</v>
       </c>
@@ -55724,15 +55724,15 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="505"/>
-      <c r="B24" s="504"/>
-      <c r="C24" s="506"/>
-      <c r="D24" s="505"/>
-      <c r="E24" s="504"/>
-      <c r="F24" s="503"/>
-      <c r="G24" s="503"/>
-      <c r="H24" s="507"/>
-      <c r="I24" s="504"/>
+      <c r="A24" s="515"/>
+      <c r="B24" s="514"/>
+      <c r="C24" s="516"/>
+      <c r="D24" s="515"/>
+      <c r="E24" s="514"/>
+      <c r="F24" s="513"/>
+      <c r="G24" s="513"/>
+      <c r="H24" s="517"/>
+      <c r="I24" s="514"/>
       <c r="J24" s="157" t="s">
         <v>855</v>
       </c>
@@ -55741,15 +55741,15 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="505"/>
-      <c r="B25" s="504"/>
-      <c r="C25" s="506"/>
-      <c r="D25" s="505"/>
-      <c r="E25" s="504"/>
-      <c r="F25" s="503"/>
-      <c r="G25" s="503"/>
-      <c r="H25" s="507"/>
-      <c r="I25" s="504"/>
+      <c r="A25" s="515"/>
+      <c r="B25" s="514"/>
+      <c r="C25" s="516"/>
+      <c r="D25" s="515"/>
+      <c r="E25" s="514"/>
+      <c r="F25" s="513"/>
+      <c r="G25" s="513"/>
+      <c r="H25" s="517"/>
+      <c r="I25" s="514"/>
       <c r="J25" s="157" t="s">
         <v>856</v>
       </c>
@@ -55758,15 +55758,15 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="505"/>
-      <c r="B26" s="504"/>
-      <c r="C26" s="506"/>
-      <c r="D26" s="505"/>
-      <c r="E26" s="504"/>
-      <c r="F26" s="503"/>
-      <c r="G26" s="503"/>
-      <c r="H26" s="507"/>
-      <c r="I26" s="504"/>
+      <c r="A26" s="515"/>
+      <c r="B26" s="514"/>
+      <c r="C26" s="516"/>
+      <c r="D26" s="515"/>
+      <c r="E26" s="514"/>
+      <c r="F26" s="513"/>
+      <c r="G26" s="513"/>
+      <c r="H26" s="517"/>
+      <c r="I26" s="514"/>
       <c r="J26" s="157" t="s">
         <v>857</v>
       </c>
@@ -55775,15 +55775,15 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="505"/>
-      <c r="B27" s="504"/>
-      <c r="C27" s="506"/>
-      <c r="D27" s="505"/>
-      <c r="E27" s="504"/>
-      <c r="F27" s="503"/>
-      <c r="G27" s="503"/>
-      <c r="H27" s="507"/>
-      <c r="I27" s="504"/>
+      <c r="A27" s="515"/>
+      <c r="B27" s="514"/>
+      <c r="C27" s="516"/>
+      <c r="D27" s="515"/>
+      <c r="E27" s="514"/>
+      <c r="F27" s="513"/>
+      <c r="G27" s="513"/>
+      <c r="H27" s="517"/>
+      <c r="I27" s="514"/>
       <c r="J27" s="157" t="s">
         <v>858</v>
       </c>
@@ -55792,15 +55792,15 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="505"/>
-      <c r="B28" s="504"/>
-      <c r="C28" s="506"/>
-      <c r="D28" s="505"/>
-      <c r="E28" s="504"/>
-      <c r="F28" s="503"/>
-      <c r="G28" s="503"/>
-      <c r="H28" s="507"/>
-      <c r="I28" s="504"/>
+      <c r="A28" s="515"/>
+      <c r="B28" s="514"/>
+      <c r="C28" s="516"/>
+      <c r="D28" s="515"/>
+      <c r="E28" s="514"/>
+      <c r="F28" s="513"/>
+      <c r="G28" s="513"/>
+      <c r="H28" s="517"/>
+      <c r="I28" s="514"/>
       <c r="J28" s="157" t="s">
         <v>859</v>
       </c>
@@ -55809,15 +55809,15 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A29" s="494"/>
-      <c r="B29" s="496"/>
-      <c r="C29" s="498"/>
-      <c r="D29" s="494"/>
-      <c r="E29" s="496"/>
-      <c r="F29" s="500"/>
-      <c r="G29" s="500"/>
-      <c r="H29" s="502"/>
-      <c r="I29" s="496"/>
+      <c r="A29" s="507"/>
+      <c r="B29" s="503"/>
+      <c r="C29" s="505"/>
+      <c r="D29" s="507"/>
+      <c r="E29" s="503"/>
+      <c r="F29" s="501"/>
+      <c r="G29" s="501"/>
+      <c r="H29" s="509"/>
+      <c r="I29" s="503"/>
       <c r="J29" s="158" t="s">
         <v>860</v>
       </c>
@@ -55855,29 +55855,29 @@
       <c r="K30" s="229"/>
     </row>
     <row r="31" spans="1:11" ht="25.5">
-      <c r="A31" s="493">
+      <c r="A31" s="506">
         <v>14</v>
       </c>
-      <c r="B31" s="495">
+      <c r="B31" s="502">
         <v>115</v>
       </c>
-      <c r="C31" s="497" t="s">
+      <c r="C31" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="493">
+      <c r="D31" s="506">
         <v>117</v>
       </c>
-      <c r="E31" s="495">
+      <c r="E31" s="502">
         <v>3</v>
       </c>
-      <c r="F31" s="499"/>
-      <c r="G31" s="499" t="s">
+      <c r="F31" s="500"/>
+      <c r="G31" s="500" t="s">
         <v>842</v>
       </c>
-      <c r="H31" s="501" t="s">
+      <c r="H31" s="508" t="s">
         <v>842</v>
       </c>
-      <c r="I31" s="495" t="s">
+      <c r="I31" s="502" t="s">
         <v>831</v>
       </c>
       <c r="J31" s="156" t="s">
@@ -55888,15 +55888,15 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="505"/>
-      <c r="B32" s="504"/>
-      <c r="C32" s="506"/>
-      <c r="D32" s="505"/>
-      <c r="E32" s="504"/>
-      <c r="F32" s="503"/>
-      <c r="G32" s="503"/>
-      <c r="H32" s="507"/>
-      <c r="I32" s="504"/>
+      <c r="A32" s="515"/>
+      <c r="B32" s="514"/>
+      <c r="C32" s="516"/>
+      <c r="D32" s="515"/>
+      <c r="E32" s="514"/>
+      <c r="F32" s="513"/>
+      <c r="G32" s="513"/>
+      <c r="H32" s="517"/>
+      <c r="I32" s="514"/>
       <c r="J32" s="161" t="s">
         <v>861</v>
       </c>
@@ -55905,15 +55905,15 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="505"/>
-      <c r="B33" s="504"/>
-      <c r="C33" s="506"/>
-      <c r="D33" s="505"/>
-      <c r="E33" s="504"/>
-      <c r="F33" s="503"/>
-      <c r="G33" s="503"/>
-      <c r="H33" s="507"/>
-      <c r="I33" s="504"/>
+      <c r="A33" s="515"/>
+      <c r="B33" s="514"/>
+      <c r="C33" s="516"/>
+      <c r="D33" s="515"/>
+      <c r="E33" s="514"/>
+      <c r="F33" s="513"/>
+      <c r="G33" s="513"/>
+      <c r="H33" s="517"/>
+      <c r="I33" s="514"/>
       <c r="J33" s="162" t="s">
         <v>862</v>
       </c>
@@ -55922,15 +55922,15 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A34" s="494"/>
-      <c r="B34" s="496"/>
-      <c r="C34" s="498"/>
-      <c r="D34" s="494"/>
-      <c r="E34" s="496"/>
-      <c r="F34" s="500"/>
-      <c r="G34" s="500"/>
-      <c r="H34" s="502"/>
-      <c r="I34" s="496"/>
+      <c r="A34" s="507"/>
+      <c r="B34" s="503"/>
+      <c r="C34" s="505"/>
+      <c r="D34" s="507"/>
+      <c r="E34" s="503"/>
+      <c r="F34" s="501"/>
+      <c r="G34" s="501"/>
+      <c r="H34" s="509"/>
+      <c r="I34" s="503"/>
       <c r="J34" s="163" t="s">
         <v>844</v>
       </c>
@@ -55968,29 +55968,29 @@
       <c r="K35" s="229"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="493">
+      <c r="A36" s="506">
         <v>16</v>
       </c>
-      <c r="B36" s="495">
+      <c r="B36" s="502">
         <v>121</v>
       </c>
-      <c r="C36" s="497" t="s">
+      <c r="C36" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="493">
+      <c r="D36" s="506">
         <v>132</v>
       </c>
-      <c r="E36" s="495">
+      <c r="E36" s="502">
         <v>12</v>
       </c>
-      <c r="F36" s="499"/>
-      <c r="G36" s="499" t="s">
+      <c r="F36" s="500"/>
+      <c r="G36" s="500" t="s">
         <v>845</v>
       </c>
-      <c r="H36" s="501" t="s">
+      <c r="H36" s="508" t="s">
         <v>1462</v>
       </c>
-      <c r="I36" s="495" t="s">
+      <c r="I36" s="502" t="s">
         <v>846</v>
       </c>
       <c r="J36" s="156" t="s">
@@ -56001,15 +56001,15 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A37" s="494"/>
-      <c r="B37" s="496"/>
-      <c r="C37" s="498"/>
-      <c r="D37" s="494"/>
-      <c r="E37" s="496"/>
-      <c r="F37" s="500"/>
-      <c r="G37" s="500"/>
-      <c r="H37" s="502"/>
-      <c r="I37" s="496"/>
+      <c r="A37" s="507"/>
+      <c r="B37" s="503"/>
+      <c r="C37" s="505"/>
+      <c r="D37" s="507"/>
+      <c r="E37" s="503"/>
+      <c r="F37" s="501"/>
+      <c r="G37" s="501"/>
+      <c r="H37" s="509"/>
+      <c r="I37" s="503"/>
       <c r="J37" s="155" t="s">
         <v>848</v>
       </c>
@@ -56047,29 +56047,29 @@
       <c r="K38" s="229"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="493">
+      <c r="A39" s="506">
         <v>18</v>
       </c>
-      <c r="B39" s="495">
+      <c r="B39" s="502">
         <v>136</v>
       </c>
-      <c r="C39" s="497" t="s">
+      <c r="C39" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="493">
+      <c r="D39" s="506">
         <v>145</v>
       </c>
-      <c r="E39" s="495">
+      <c r="E39" s="502">
         <v>10</v>
       </c>
-      <c r="F39" s="499"/>
-      <c r="G39" s="499" t="s">
+      <c r="F39" s="500"/>
+      <c r="G39" s="500" t="s">
         <v>849</v>
       </c>
-      <c r="H39" s="501" t="s">
+      <c r="H39" s="508" t="s">
         <v>1465</v>
       </c>
-      <c r="I39" s="495" t="s">
+      <c r="I39" s="502" t="s">
         <v>850</v>
       </c>
       <c r="J39" s="156" t="s">
@@ -56080,15 +56080,15 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A40" s="494"/>
-      <c r="B40" s="496"/>
-      <c r="C40" s="498"/>
-      <c r="D40" s="494"/>
-      <c r="E40" s="496"/>
-      <c r="F40" s="500"/>
-      <c r="G40" s="500"/>
-      <c r="H40" s="502"/>
-      <c r="I40" s="496"/>
+      <c r="A40" s="507"/>
+      <c r="B40" s="503"/>
+      <c r="C40" s="505"/>
+      <c r="D40" s="507"/>
+      <c r="E40" s="503"/>
+      <c r="F40" s="501"/>
+      <c r="G40" s="501"/>
+      <c r="H40" s="509"/>
+      <c r="I40" s="503"/>
       <c r="J40" s="155" t="s">
         <v>852</v>
       </c>
@@ -56126,29 +56126,29 @@
       <c r="K41" s="229"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="493">
+      <c r="A42" s="506">
         <v>20</v>
       </c>
-      <c r="B42" s="495">
+      <c r="B42" s="502">
         <v>150</v>
       </c>
-      <c r="C42" s="497" t="s">
+      <c r="C42" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="493">
+      <c r="D42" s="506">
         <v>157</v>
       </c>
-      <c r="E42" s="495">
+      <c r="E42" s="502">
         <v>8</v>
       </c>
-      <c r="F42" s="499"/>
-      <c r="G42" s="499" t="s">
+      <c r="F42" s="500"/>
+      <c r="G42" s="500" t="s">
         <v>865</v>
       </c>
-      <c r="H42" s="501" t="s">
+      <c r="H42" s="508" t="s">
         <v>1468</v>
       </c>
-      <c r="I42" s="495" t="s">
+      <c r="I42" s="502" t="s">
         <v>866</v>
       </c>
       <c r="J42" s="164" t="s">
@@ -56159,15 +56159,15 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A43" s="494"/>
-      <c r="B43" s="496"/>
-      <c r="C43" s="498"/>
-      <c r="D43" s="494"/>
-      <c r="E43" s="496"/>
-      <c r="F43" s="500"/>
-      <c r="G43" s="500"/>
-      <c r="H43" s="502"/>
-      <c r="I43" s="496"/>
+      <c r="A43" s="507"/>
+      <c r="B43" s="503"/>
+      <c r="C43" s="505"/>
+      <c r="D43" s="507"/>
+      <c r="E43" s="503"/>
+      <c r="F43" s="501"/>
+      <c r="G43" s="501"/>
+      <c r="H43" s="509"/>
+      <c r="I43" s="503"/>
       <c r="J43" s="155" t="s">
         <v>868</v>
       </c>
@@ -56205,29 +56205,29 @@
       <c r="K44" s="229"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="493">
+      <c r="A45" s="506">
         <v>22</v>
       </c>
-      <c r="B45" s="495">
+      <c r="B45" s="502">
         <v>159</v>
       </c>
-      <c r="C45" s="497" t="s">
+      <c r="C45" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="493">
+      <c r="D45" s="506">
         <v>166</v>
       </c>
-      <c r="E45" s="495">
+      <c r="E45" s="502">
         <v>8</v>
       </c>
-      <c r="F45" s="499"/>
-      <c r="G45" s="499" t="s">
+      <c r="F45" s="500"/>
+      <c r="G45" s="500" t="s">
         <v>869</v>
       </c>
-      <c r="H45" s="501" t="s">
+      <c r="H45" s="508" t="s">
         <v>1471</v>
       </c>
-      <c r="I45" s="495" t="s">
+      <c r="I45" s="502" t="s">
         <v>866</v>
       </c>
       <c r="J45" s="156" t="s">
@@ -56238,15 +56238,15 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A46" s="494"/>
-      <c r="B46" s="496"/>
-      <c r="C46" s="498"/>
-      <c r="D46" s="494"/>
-      <c r="E46" s="496"/>
-      <c r="F46" s="500"/>
-      <c r="G46" s="500"/>
-      <c r="H46" s="502"/>
-      <c r="I46" s="496"/>
+      <c r="A46" s="507"/>
+      <c r="B46" s="503"/>
+      <c r="C46" s="505"/>
+      <c r="D46" s="507"/>
+      <c r="E46" s="503"/>
+      <c r="F46" s="501"/>
+      <c r="G46" s="501"/>
+      <c r="H46" s="509"/>
+      <c r="I46" s="503"/>
       <c r="J46" s="155" t="s">
         <v>870</v>
       </c>
@@ -56284,29 +56284,29 @@
       <c r="K47" s="229"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="493">
+      <c r="A48" s="506">
         <v>24</v>
       </c>
-      <c r="B48" s="495">
+      <c r="B48" s="502">
         <v>170</v>
       </c>
-      <c r="C48" s="497" t="s">
+      <c r="C48" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="493">
+      <c r="D48" s="506">
         <v>173</v>
       </c>
-      <c r="E48" s="495">
+      <c r="E48" s="502">
         <v>4</v>
       </c>
-      <c r="F48" s="499"/>
-      <c r="G48" s="499" t="s">
+      <c r="F48" s="500"/>
+      <c r="G48" s="500" t="s">
         <v>871</v>
       </c>
-      <c r="H48" s="501" t="s">
+      <c r="H48" s="508" t="s">
         <v>1473</v>
       </c>
-      <c r="I48" s="495" t="s">
+      <c r="I48" s="502" t="s">
         <v>820</v>
       </c>
       <c r="J48" s="156" t="s">
@@ -56317,15 +56317,15 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A49" s="494"/>
-      <c r="B49" s="496"/>
-      <c r="C49" s="498"/>
-      <c r="D49" s="494"/>
-      <c r="E49" s="496"/>
-      <c r="F49" s="500"/>
-      <c r="G49" s="500"/>
-      <c r="H49" s="502"/>
-      <c r="I49" s="496"/>
+      <c r="A49" s="507"/>
+      <c r="B49" s="503"/>
+      <c r="C49" s="505"/>
+      <c r="D49" s="507"/>
+      <c r="E49" s="503"/>
+      <c r="F49" s="501"/>
+      <c r="G49" s="501"/>
+      <c r="H49" s="509"/>
+      <c r="I49" s="503"/>
       <c r="J49" s="155" t="s">
         <v>873</v>
       </c>
@@ -56363,29 +56363,29 @@
       <c r="K50" s="229"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="493">
+      <c r="A51" s="506">
         <v>26</v>
       </c>
-      <c r="B51" s="495">
+      <c r="B51" s="502">
         <v>176</v>
       </c>
-      <c r="C51" s="497" t="s">
+      <c r="C51" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="493">
+      <c r="D51" s="506">
         <v>179</v>
       </c>
-      <c r="E51" s="495">
+      <c r="E51" s="502">
         <v>4</v>
       </c>
-      <c r="F51" s="499"/>
-      <c r="G51" s="499" t="s">
+      <c r="F51" s="500"/>
+      <c r="G51" s="500" t="s">
         <v>874</v>
       </c>
-      <c r="H51" s="501" t="s">
+      <c r="H51" s="508" t="s">
         <v>1476</v>
       </c>
-      <c r="I51" s="495" t="s">
+      <c r="I51" s="502" t="s">
         <v>820</v>
       </c>
       <c r="J51" s="156" t="s">
@@ -56396,15 +56396,15 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A52" s="494"/>
-      <c r="B52" s="496"/>
-      <c r="C52" s="498"/>
-      <c r="D52" s="494"/>
-      <c r="E52" s="496"/>
-      <c r="F52" s="500"/>
-      <c r="G52" s="500"/>
-      <c r="H52" s="502"/>
-      <c r="I52" s="496"/>
+      <c r="A52" s="507"/>
+      <c r="B52" s="503"/>
+      <c r="C52" s="505"/>
+      <c r="D52" s="507"/>
+      <c r="E52" s="503"/>
+      <c r="F52" s="501"/>
+      <c r="G52" s="501"/>
+      <c r="H52" s="509"/>
+      <c r="I52" s="503"/>
       <c r="J52" s="155" t="s">
         <v>876</v>
       </c>
@@ -56442,29 +56442,29 @@
       <c r="K53" s="229"/>
     </row>
     <row r="54" spans="1:11" ht="51">
-      <c r="A54" s="493">
+      <c r="A54" s="506">
         <v>28</v>
       </c>
-      <c r="B54" s="495">
+      <c r="B54" s="502">
         <v>181</v>
       </c>
-      <c r="C54" s="497" t="s">
+      <c r="C54" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="493">
+      <c r="D54" s="506">
         <v>190</v>
       </c>
-      <c r="E54" s="495">
+      <c r="E54" s="502">
         <v>10</v>
       </c>
-      <c r="F54" s="499"/>
-      <c r="G54" s="499" t="s">
+      <c r="F54" s="500"/>
+      <c r="G54" s="500" t="s">
         <v>877</v>
       </c>
-      <c r="H54" s="501" t="s">
+      <c r="H54" s="508" t="s">
         <v>1479</v>
       </c>
-      <c r="I54" s="495" t="s">
+      <c r="I54" s="502" t="s">
         <v>850</v>
       </c>
       <c r="J54" s="156" t="s">
@@ -56475,15 +56475,15 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A55" s="494"/>
-      <c r="B55" s="496"/>
-      <c r="C55" s="498"/>
-      <c r="D55" s="494"/>
-      <c r="E55" s="496"/>
-      <c r="F55" s="500"/>
-      <c r="G55" s="500"/>
-      <c r="H55" s="502"/>
-      <c r="I55" s="496"/>
+      <c r="A55" s="507"/>
+      <c r="B55" s="503"/>
+      <c r="C55" s="505"/>
+      <c r="D55" s="507"/>
+      <c r="E55" s="503"/>
+      <c r="F55" s="501"/>
+      <c r="G55" s="501"/>
+      <c r="H55" s="509"/>
+      <c r="I55" s="503"/>
       <c r="J55" s="155" t="s">
         <v>879</v>
       </c>
@@ -56583,27 +56583,27 @@
       <c r="K58" s="229"/>
     </row>
     <row r="59" spans="1:11" ht="12.95" customHeight="1">
-      <c r="A59" s="499">
+      <c r="A59" s="500">
         <v>32</v>
       </c>
-      <c r="B59" s="495">
+      <c r="B59" s="502">
         <v>201</v>
       </c>
-      <c r="C59" s="499"/>
-      <c r="D59" s="493">
+      <c r="C59" s="500"/>
+      <c r="D59" s="506">
         <v>206</v>
       </c>
-      <c r="E59" s="495">
+      <c r="E59" s="502">
         <v>6</v>
       </c>
-      <c r="F59" s="499"/>
-      <c r="G59" s="499" t="s">
+      <c r="F59" s="500"/>
+      <c r="G59" s="500" t="s">
         <v>882</v>
       </c>
-      <c r="H59" s="501" t="s">
+      <c r="H59" s="508" t="s">
         <v>1231</v>
       </c>
-      <c r="I59" s="495" t="s">
+      <c r="I59" s="502" t="s">
         <v>24</v>
       </c>
       <c r="J59" s="156" t="s">
@@ -56614,15 +56614,15 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A60" s="500"/>
-      <c r="B60" s="496"/>
-      <c r="C60" s="500"/>
-      <c r="D60" s="494"/>
-      <c r="E60" s="496"/>
-      <c r="F60" s="500"/>
-      <c r="G60" s="500"/>
-      <c r="H60" s="502"/>
-      <c r="I60" s="496"/>
+      <c r="A60" s="501"/>
+      <c r="B60" s="503"/>
+      <c r="C60" s="501"/>
+      <c r="D60" s="507"/>
+      <c r="E60" s="503"/>
+      <c r="F60" s="501"/>
+      <c r="G60" s="501"/>
+      <c r="H60" s="509"/>
+      <c r="I60" s="503"/>
       <c r="J60" s="155" t="s">
         <v>883</v>
       </c>
@@ -56658,27 +56658,27 @@
       <c r="K61" s="229"/>
     </row>
     <row r="62" spans="1:11" ht="25.5">
-      <c r="A62" s="499">
+      <c r="A62" s="500">
         <v>34</v>
       </c>
-      <c r="B62" s="495">
+      <c r="B62" s="502">
         <v>209</v>
       </c>
-      <c r="C62" s="499"/>
-      <c r="D62" s="493">
+      <c r="C62" s="500"/>
+      <c r="D62" s="506">
         <v>210</v>
       </c>
-      <c r="E62" s="495">
+      <c r="E62" s="502">
         <v>2</v>
       </c>
-      <c r="F62" s="499"/>
-      <c r="G62" s="499" t="s">
+      <c r="F62" s="500"/>
+      <c r="G62" s="500" t="s">
         <v>884</v>
       </c>
-      <c r="H62" s="501" t="s">
+      <c r="H62" s="508" t="s">
         <v>1486</v>
       </c>
-      <c r="I62" s="495" t="s">
+      <c r="I62" s="502" t="s">
         <v>50</v>
       </c>
       <c r="J62" s="156" t="s">
@@ -56689,15 +56689,15 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A63" s="500"/>
-      <c r="B63" s="496"/>
-      <c r="C63" s="500"/>
-      <c r="D63" s="494"/>
-      <c r="E63" s="496"/>
-      <c r="F63" s="500"/>
-      <c r="G63" s="500"/>
-      <c r="H63" s="502"/>
-      <c r="I63" s="496"/>
+      <c r="A63" s="501"/>
+      <c r="B63" s="503"/>
+      <c r="C63" s="501"/>
+      <c r="D63" s="507"/>
+      <c r="E63" s="503"/>
+      <c r="F63" s="501"/>
+      <c r="G63" s="501"/>
+      <c r="H63" s="509"/>
+      <c r="I63" s="503"/>
       <c r="J63" s="155" t="s">
         <v>885</v>
       </c>
@@ -56733,27 +56733,27 @@
       <c r="K64" s="229"/>
     </row>
     <row r="65" spans="1:11" ht="38.25">
-      <c r="A65" s="499">
+      <c r="A65" s="500">
         <v>36</v>
       </c>
-      <c r="B65" s="495">
+      <c r="B65" s="502">
         <v>213</v>
       </c>
-      <c r="C65" s="499"/>
-      <c r="D65" s="493">
+      <c r="C65" s="500"/>
+      <c r="D65" s="506">
         <v>225</v>
       </c>
-      <c r="E65" s="495">
+      <c r="E65" s="502">
         <v>13</v>
       </c>
-      <c r="F65" s="499"/>
-      <c r="G65" s="499" t="s">
+      <c r="F65" s="500"/>
+      <c r="G65" s="500" t="s">
         <v>886</v>
       </c>
-      <c r="H65" s="501" t="s">
+      <c r="H65" s="508" t="s">
         <v>1489</v>
       </c>
-      <c r="I65" s="495" t="s">
+      <c r="I65" s="502" t="s">
         <v>33</v>
       </c>
       <c r="J65" s="156" t="s">
@@ -56764,15 +56764,15 @@
       </c>
     </row>
     <row r="66" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A66" s="500"/>
-      <c r="B66" s="496"/>
-      <c r="C66" s="500"/>
-      <c r="D66" s="494"/>
-      <c r="E66" s="496"/>
-      <c r="F66" s="500"/>
-      <c r="G66" s="500"/>
-      <c r="H66" s="502"/>
-      <c r="I66" s="496"/>
+      <c r="A66" s="501"/>
+      <c r="B66" s="503"/>
+      <c r="C66" s="501"/>
+      <c r="D66" s="507"/>
+      <c r="E66" s="503"/>
+      <c r="F66" s="501"/>
+      <c r="G66" s="501"/>
+      <c r="H66" s="509"/>
+      <c r="I66" s="503"/>
       <c r="J66" s="155" t="s">
         <v>887</v>
       </c>
@@ -56808,27 +56808,27 @@
       <c r="K67" s="229"/>
     </row>
     <row r="68" spans="1:11" ht="38.25">
-      <c r="A68" s="499">
+      <c r="A68" s="500">
         <v>38</v>
       </c>
-      <c r="B68" s="495">
+      <c r="B68" s="502">
         <v>228</v>
       </c>
-      <c r="C68" s="499"/>
-      <c r="D68" s="493">
+      <c r="C68" s="500"/>
+      <c r="D68" s="506">
         <v>230</v>
       </c>
-      <c r="E68" s="495">
+      <c r="E68" s="502">
         <v>3</v>
       </c>
-      <c r="F68" s="499"/>
-      <c r="G68" s="499" t="s">
+      <c r="F68" s="500"/>
+      <c r="G68" s="500" t="s">
         <v>888</v>
       </c>
-      <c r="H68" s="501" t="s">
+      <c r="H68" s="508" t="s">
         <v>1492</v>
       </c>
-      <c r="I68" s="495" t="s">
+      <c r="I68" s="502" t="s">
         <v>114</v>
       </c>
       <c r="J68" s="156" t="s">
@@ -56839,15 +56839,15 @@
       </c>
     </row>
     <row r="69" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A69" s="500"/>
-      <c r="B69" s="496"/>
-      <c r="C69" s="500"/>
-      <c r="D69" s="494"/>
-      <c r="E69" s="496"/>
-      <c r="F69" s="500"/>
-      <c r="G69" s="500"/>
-      <c r="H69" s="502"/>
-      <c r="I69" s="496"/>
+      <c r="A69" s="501"/>
+      <c r="B69" s="503"/>
+      <c r="C69" s="501"/>
+      <c r="D69" s="507"/>
+      <c r="E69" s="503"/>
+      <c r="F69" s="501"/>
+      <c r="G69" s="501"/>
+      <c r="H69" s="509"/>
+      <c r="I69" s="503"/>
       <c r="J69" s="155" t="s">
         <v>889</v>
       </c>
@@ -56883,27 +56883,27 @@
       <c r="K70" s="229"/>
     </row>
     <row r="71" spans="1:11" ht="25.5">
-      <c r="A71" s="499">
+      <c r="A71" s="500">
         <v>40</v>
       </c>
-      <c r="B71" s="495">
+      <c r="B71" s="502">
         <v>233</v>
       </c>
-      <c r="C71" s="499"/>
-      <c r="D71" s="493">
+      <c r="C71" s="500"/>
+      <c r="D71" s="506">
         <v>242</v>
       </c>
-      <c r="E71" s="495">
+      <c r="E71" s="502">
         <v>10</v>
       </c>
-      <c r="F71" s="499"/>
-      <c r="G71" s="499" t="s">
+      <c r="F71" s="500"/>
+      <c r="G71" s="500" t="s">
         <v>904</v>
       </c>
-      <c r="H71" s="501" t="s">
+      <c r="H71" s="508" t="s">
         <v>1495</v>
       </c>
-      <c r="I71" s="495" t="s">
+      <c r="I71" s="502" t="s">
         <v>9</v>
       </c>
       <c r="J71" s="156" t="s">
@@ -56914,15 +56914,15 @@
       </c>
     </row>
     <row r="72" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A72" s="500"/>
-      <c r="B72" s="496"/>
-      <c r="C72" s="500"/>
-      <c r="D72" s="494"/>
-      <c r="E72" s="496"/>
-      <c r="F72" s="500"/>
-      <c r="G72" s="500"/>
-      <c r="H72" s="502"/>
-      <c r="I72" s="496"/>
+      <c r="A72" s="501"/>
+      <c r="B72" s="503"/>
+      <c r="C72" s="501"/>
+      <c r="D72" s="507"/>
+      <c r="E72" s="503"/>
+      <c r="F72" s="501"/>
+      <c r="G72" s="501"/>
+      <c r="H72" s="509"/>
+      <c r="I72" s="503"/>
       <c r="J72" s="155" t="s">
         <v>890</v>
       </c>
@@ -56960,29 +56960,29 @@
       <c r="K73" s="229"/>
     </row>
     <row r="74" spans="1:11" ht="25.5">
-      <c r="A74" s="499">
+      <c r="A74" s="500">
         <v>34</v>
       </c>
-      <c r="B74" s="495">
+      <c r="B74" s="502">
         <v>245</v>
       </c>
-      <c r="C74" s="497" t="s">
+      <c r="C74" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="493">
+      <c r="D74" s="506">
         <v>254</v>
       </c>
-      <c r="E74" s="495">
+      <c r="E74" s="502">
         <v>10</v>
       </c>
-      <c r="F74" s="499"/>
-      <c r="G74" s="499" t="s">
+      <c r="F74" s="500"/>
+      <c r="G74" s="500" t="s">
         <v>891</v>
       </c>
-      <c r="H74" s="501" t="s">
+      <c r="H74" s="508" t="s">
         <v>1498</v>
       </c>
-      <c r="I74" s="495" t="s">
+      <c r="I74" s="502" t="s">
         <v>850</v>
       </c>
       <c r="J74" s="156" t="s">
@@ -56993,15 +56993,15 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A75" s="500"/>
-      <c r="B75" s="496"/>
-      <c r="C75" s="498"/>
-      <c r="D75" s="494"/>
-      <c r="E75" s="496"/>
-      <c r="F75" s="500"/>
-      <c r="G75" s="500"/>
-      <c r="H75" s="502"/>
-      <c r="I75" s="496"/>
+      <c r="A75" s="501"/>
+      <c r="B75" s="503"/>
+      <c r="C75" s="505"/>
+      <c r="D75" s="507"/>
+      <c r="E75" s="503"/>
+      <c r="F75" s="501"/>
+      <c r="G75" s="501"/>
+      <c r="H75" s="509"/>
+      <c r="I75" s="503"/>
       <c r="J75" s="155" t="s">
         <v>893</v>
       </c>
@@ -57039,29 +57039,29 @@
       <c r="K76" s="230"/>
     </row>
     <row r="77" spans="1:11" ht="25.5">
-      <c r="A77" s="514">
+      <c r="A77" s="494">
         <v>36</v>
       </c>
-      <c r="B77" s="511">
+      <c r="B77" s="491">
         <v>257</v>
       </c>
-      <c r="C77" s="517" t="s">
+      <c r="C77" s="497" t="s">
         <v>8</v>
       </c>
-      <c r="D77" s="511">
+      <c r="D77" s="491">
         <v>260</v>
       </c>
-      <c r="E77" s="511">
+      <c r="E77" s="491">
         <v>4</v>
       </c>
-      <c r="F77" s="511"/>
-      <c r="G77" s="508" t="s">
+      <c r="F77" s="491"/>
+      <c r="G77" s="488" t="s">
         <v>894</v>
       </c>
-      <c r="H77" s="520" t="s">
+      <c r="H77" s="510" t="s">
         <v>894</v>
       </c>
-      <c r="I77" s="511" t="s">
+      <c r="I77" s="491" t="s">
         <v>820</v>
       </c>
       <c r="J77" s="168" t="s">
@@ -57072,15 +57072,15 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="515"/>
-      <c r="B78" s="512"/>
-      <c r="C78" s="518"/>
-      <c r="D78" s="512"/>
-      <c r="E78" s="512"/>
-      <c r="F78" s="512"/>
-      <c r="G78" s="509"/>
-      <c r="H78" s="521"/>
-      <c r="I78" s="512"/>
+      <c r="A78" s="495"/>
+      <c r="B78" s="492"/>
+      <c r="C78" s="498"/>
+      <c r="D78" s="492"/>
+      <c r="E78" s="492"/>
+      <c r="F78" s="492"/>
+      <c r="G78" s="489"/>
+      <c r="H78" s="511"/>
+      <c r="I78" s="492"/>
       <c r="J78" s="169" t="s">
         <v>902</v>
       </c>
@@ -57089,15 +57089,15 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A79" s="516"/>
-      <c r="B79" s="513"/>
-      <c r="C79" s="519"/>
-      <c r="D79" s="513"/>
-      <c r="E79" s="513"/>
-      <c r="F79" s="513"/>
-      <c r="G79" s="510"/>
-      <c r="H79" s="522"/>
-      <c r="I79" s="513"/>
+      <c r="A79" s="496"/>
+      <c r="B79" s="493"/>
+      <c r="C79" s="499"/>
+      <c r="D79" s="493"/>
+      <c r="E79" s="493"/>
+      <c r="F79" s="493"/>
+      <c r="G79" s="490"/>
+      <c r="H79" s="512"/>
+      <c r="I79" s="493"/>
       <c r="J79" s="170" t="s">
         <v>903</v>
       </c>
@@ -57136,6 +57136,179 @@
     </row>
   </sheetData>
   <mergeCells count="191">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G20:G29"/>
+    <mergeCell ref="I20:I29"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="A20:A29"/>
+    <mergeCell ref="B20:B29"/>
+    <mergeCell ref="C20:C29"/>
+    <mergeCell ref="D20:D29"/>
+    <mergeCell ref="E20:E29"/>
+    <mergeCell ref="F20:F29"/>
+    <mergeCell ref="H20:H29"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H71:H72"/>
     <mergeCell ref="G77:G79"/>
     <mergeCell ref="I77:I79"/>
     <mergeCell ref="A77:A79"/>
@@ -57154,179 +57327,6 @@
     <mergeCell ref="F74:F75"/>
     <mergeCell ref="H74:H75"/>
     <mergeCell ref="H77:H79"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="G20:G29"/>
-    <mergeCell ref="I20:I29"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="A20:A29"/>
-    <mergeCell ref="B20:B29"/>
-    <mergeCell ref="C20:C29"/>
-    <mergeCell ref="D20:D29"/>
-    <mergeCell ref="E20:E29"/>
-    <mergeCell ref="F20:F29"/>
-    <mergeCell ref="H20:H29"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -59536,28 +59536,28 @@
       <c r="K1" s="227"/>
     </row>
     <row r="2" spans="1:11" customFormat="1" ht="19.5" thickBot="1">
-      <c r="A2" s="488" t="s">
+      <c r="A2" s="518" t="s">
         <v>1441</v>
       </c>
-      <c r="B2" s="489"/>
-      <c r="C2" s="489"/>
-      <c r="D2" s="489"/>
-      <c r="E2" s="489"/>
-      <c r="F2" s="489"/>
-      <c r="G2" s="489"/>
-      <c r="H2" s="489"/>
-      <c r="I2" s="489"/>
-      <c r="J2" s="490"/>
+      <c r="B2" s="519"/>
+      <c r="C2" s="519"/>
+      <c r="D2" s="519"/>
+      <c r="E2" s="519"/>
+      <c r="F2" s="519"/>
+      <c r="G2" s="519"/>
+      <c r="H2" s="519"/>
+      <c r="I2" s="519"/>
+      <c r="J2" s="520"/>
       <c r="K2" s="227"/>
     </row>
     <row r="3" spans="1:11" ht="26.25" thickBot="1">
       <c r="A3" s="147" t="s">
         <v>811</v>
       </c>
-      <c r="B3" s="491" t="s">
+      <c r="B3" s="521" t="s">
         <v>812</v>
       </c>
-      <c r="C3" s="492"/>
+      <c r="C3" s="522"/>
       <c r="D3" s="148" t="s">
         <v>813</v>
       </c>
@@ -59613,29 +59613,29 @@
       <c r="K4" s="229"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="493">
+      <c r="A5" s="506">
         <v>2</v>
       </c>
-      <c r="B5" s="495">
+      <c r="B5" s="502">
         <v>3</v>
       </c>
-      <c r="C5" s="497" t="s">
+      <c r="C5" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="493">
+      <c r="D5" s="506">
         <v>6</v>
       </c>
-      <c r="E5" s="495">
+      <c r="E5" s="502">
         <v>4</v>
       </c>
-      <c r="F5" s="499"/>
-      <c r="G5" s="499" t="s">
+      <c r="F5" s="500"/>
+      <c r="G5" s="500" t="s">
         <v>819</v>
       </c>
-      <c r="H5" s="501" t="s">
+      <c r="H5" s="508" t="s">
         <v>1442</v>
       </c>
-      <c r="I5" s="495" t="s">
+      <c r="I5" s="502" t="s">
         <v>820</v>
       </c>
       <c r="J5" s="156" t="s">
@@ -59646,15 +59646,15 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A6" s="494"/>
-      <c r="B6" s="496"/>
-      <c r="C6" s="498"/>
-      <c r="D6" s="494"/>
-      <c r="E6" s="496"/>
-      <c r="F6" s="500"/>
-      <c r="G6" s="500"/>
-      <c r="H6" s="502"/>
-      <c r="I6" s="496"/>
+      <c r="A6" s="507"/>
+      <c r="B6" s="503"/>
+      <c r="C6" s="505"/>
+      <c r="D6" s="507"/>
+      <c r="E6" s="503"/>
+      <c r="F6" s="501"/>
+      <c r="G6" s="501"/>
+      <c r="H6" s="509"/>
+      <c r="I6" s="503"/>
       <c r="J6" s="155" t="s">
         <v>822</v>
       </c>
@@ -59692,29 +59692,29 @@
       <c r="K7" s="229"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="493">
+      <c r="A8" s="506">
         <v>4</v>
       </c>
-      <c r="B8" s="495">
+      <c r="B8" s="502">
         <v>25</v>
       </c>
-      <c r="C8" s="497" t="s">
+      <c r="C8" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="493">
+      <c r="D8" s="506">
         <v>43</v>
       </c>
-      <c r="E8" s="495">
+      <c r="E8" s="502">
         <v>19</v>
       </c>
-      <c r="F8" s="499"/>
-      <c r="G8" s="499" t="s">
+      <c r="F8" s="500"/>
+      <c r="G8" s="500" t="s">
         <v>824</v>
       </c>
-      <c r="H8" s="501" t="s">
+      <c r="H8" s="508" t="s">
         <v>1445</v>
       </c>
-      <c r="I8" s="495" t="s">
+      <c r="I8" s="502" t="s">
         <v>825</v>
       </c>
       <c r="J8" s="156" t="s">
@@ -59725,15 +59725,15 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A9" s="494"/>
-      <c r="B9" s="496"/>
-      <c r="C9" s="498"/>
-      <c r="D9" s="494"/>
-      <c r="E9" s="496"/>
-      <c r="F9" s="500"/>
-      <c r="G9" s="500"/>
-      <c r="H9" s="502"/>
-      <c r="I9" s="496"/>
+      <c r="A9" s="507"/>
+      <c r="B9" s="503"/>
+      <c r="C9" s="505"/>
+      <c r="D9" s="507"/>
+      <c r="E9" s="503"/>
+      <c r="F9" s="501"/>
+      <c r="G9" s="501"/>
+      <c r="H9" s="509"/>
+      <c r="I9" s="503"/>
       <c r="J9" s="155" t="s">
         <v>827</v>
       </c>
@@ -59771,29 +59771,29 @@
       <c r="K10" s="229"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="493">
+      <c r="A11" s="506">
         <v>6</v>
       </c>
-      <c r="B11" s="495">
+      <c r="B11" s="502">
         <v>48</v>
       </c>
-      <c r="C11" s="497" t="s">
+      <c r="C11" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="493">
+      <c r="D11" s="506">
         <v>66</v>
       </c>
-      <c r="E11" s="495">
+      <c r="E11" s="502">
         <v>19</v>
       </c>
-      <c r="F11" s="499"/>
-      <c r="G11" s="499" t="s">
+      <c r="F11" s="500"/>
+      <c r="G11" s="500" t="s">
         <v>828</v>
       </c>
-      <c r="H11" s="501" t="s">
+      <c r="H11" s="508" t="s">
         <v>1448</v>
       </c>
-      <c r="I11" s="495" t="s">
+      <c r="I11" s="502" t="s">
         <v>825</v>
       </c>
       <c r="J11" s="156" t="s">
@@ -59804,15 +59804,15 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A12" s="494"/>
-      <c r="B12" s="496"/>
-      <c r="C12" s="498"/>
-      <c r="D12" s="494"/>
-      <c r="E12" s="496"/>
-      <c r="F12" s="500"/>
-      <c r="G12" s="500"/>
-      <c r="H12" s="502"/>
-      <c r="I12" s="496"/>
+      <c r="A12" s="507"/>
+      <c r="B12" s="503"/>
+      <c r="C12" s="505"/>
+      <c r="D12" s="507"/>
+      <c r="E12" s="503"/>
+      <c r="F12" s="501"/>
+      <c r="G12" s="501"/>
+      <c r="H12" s="509"/>
+      <c r="I12" s="503"/>
       <c r="J12" s="155" t="s">
         <v>830</v>
       </c>
@@ -59850,29 +59850,29 @@
       <c r="K13" s="229"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="493">
+      <c r="A14" s="506">
         <v>8</v>
       </c>
-      <c r="B14" s="495">
+      <c r="B14" s="502">
         <v>70</v>
       </c>
-      <c r="C14" s="497" t="s">
+      <c r="C14" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="493">
+      <c r="D14" s="506">
         <v>88</v>
       </c>
-      <c r="E14" s="495">
+      <c r="E14" s="502">
         <v>19</v>
       </c>
-      <c r="F14" s="499"/>
-      <c r="G14" s="499" t="s">
+      <c r="F14" s="500"/>
+      <c r="G14" s="500" t="s">
         <v>832</v>
       </c>
-      <c r="H14" s="501" t="s">
+      <c r="H14" s="508" t="s">
         <v>1451</v>
       </c>
-      <c r="I14" s="495" t="s">
+      <c r="I14" s="502" t="s">
         <v>825</v>
       </c>
       <c r="J14" s="156" t="s">
@@ -59883,15 +59883,15 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A15" s="494"/>
-      <c r="B15" s="496"/>
-      <c r="C15" s="498"/>
-      <c r="D15" s="494"/>
-      <c r="E15" s="496"/>
-      <c r="F15" s="500"/>
-      <c r="G15" s="500"/>
-      <c r="H15" s="502"/>
-      <c r="I15" s="496"/>
+      <c r="A15" s="507"/>
+      <c r="B15" s="503"/>
+      <c r="C15" s="505"/>
+      <c r="D15" s="507"/>
+      <c r="E15" s="503"/>
+      <c r="F15" s="501"/>
+      <c r="G15" s="501"/>
+      <c r="H15" s="509"/>
+      <c r="I15" s="503"/>
       <c r="J15" s="155" t="s">
         <v>834</v>
       </c>
@@ -59929,29 +59929,29 @@
       <c r="K16" s="229"/>
     </row>
     <row r="17" spans="1:11" ht="25.5">
-      <c r="A17" s="493">
+      <c r="A17" s="506">
         <v>10</v>
       </c>
-      <c r="B17" s="495">
+      <c r="B17" s="502">
         <v>91</v>
       </c>
-      <c r="C17" s="497" t="s">
+      <c r="C17" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="493">
+      <c r="D17" s="506">
         <v>105</v>
       </c>
-      <c r="E17" s="495">
+      <c r="E17" s="502">
         <v>15</v>
       </c>
-      <c r="F17" s="499"/>
-      <c r="G17" s="499" t="s">
+      <c r="F17" s="500"/>
+      <c r="G17" s="500" t="s">
         <v>835</v>
       </c>
-      <c r="H17" s="501" t="s">
+      <c r="H17" s="508" t="s">
         <v>1454</v>
       </c>
-      <c r="I17" s="495" t="s">
+      <c r="I17" s="502" t="s">
         <v>836</v>
       </c>
       <c r="J17" s="156" t="s">
@@ -59962,15 +59962,15 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A18" s="494"/>
-      <c r="B18" s="496"/>
-      <c r="C18" s="498"/>
-      <c r="D18" s="494"/>
-      <c r="E18" s="496"/>
-      <c r="F18" s="500"/>
-      <c r="G18" s="500"/>
-      <c r="H18" s="502"/>
-      <c r="I18" s="496"/>
+      <c r="A18" s="507"/>
+      <c r="B18" s="503"/>
+      <c r="C18" s="505"/>
+      <c r="D18" s="507"/>
+      <c r="E18" s="503"/>
+      <c r="F18" s="501"/>
+      <c r="G18" s="501"/>
+      <c r="H18" s="509"/>
+      <c r="I18" s="503"/>
       <c r="J18" s="369" t="s">
         <v>864</v>
       </c>
@@ -60008,29 +60008,29 @@
       <c r="K19" s="229"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="493">
+      <c r="A20" s="506">
         <v>12</v>
       </c>
-      <c r="B20" s="495">
+      <c r="B20" s="502">
         <v>109</v>
       </c>
-      <c r="C20" s="497" t="s">
+      <c r="C20" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="493">
+      <c r="D20" s="506">
         <v>109</v>
       </c>
-      <c r="E20" s="495">
+      <c r="E20" s="502">
         <v>1</v>
       </c>
-      <c r="F20" s="499"/>
-      <c r="G20" s="499" t="s">
+      <c r="F20" s="500"/>
+      <c r="G20" s="500" t="s">
         <v>837</v>
       </c>
-      <c r="H20" s="501" t="s">
+      <c r="H20" s="508" t="s">
         <v>837</v>
       </c>
-      <c r="I20" s="495" t="s">
+      <c r="I20" s="502" t="s">
         <v>838</v>
       </c>
       <c r="J20" s="156" t="s">
@@ -60041,15 +60041,15 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="505"/>
-      <c r="B21" s="504"/>
-      <c r="C21" s="506"/>
-      <c r="D21" s="505"/>
-      <c r="E21" s="504"/>
-      <c r="F21" s="503"/>
-      <c r="G21" s="503"/>
-      <c r="H21" s="507"/>
-      <c r="I21" s="504"/>
+      <c r="A21" s="515"/>
+      <c r="B21" s="514"/>
+      <c r="C21" s="516"/>
+      <c r="D21" s="515"/>
+      <c r="E21" s="514"/>
+      <c r="F21" s="513"/>
+      <c r="G21" s="513"/>
+      <c r="H21" s="517"/>
+      <c r="I21" s="514"/>
       <c r="J21" s="156" t="s">
         <v>840</v>
       </c>
@@ -60058,15 +60058,15 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="505"/>
-      <c r="B22" s="504"/>
-      <c r="C22" s="506"/>
-      <c r="D22" s="505"/>
-      <c r="E22" s="504"/>
-      <c r="F22" s="503"/>
-      <c r="G22" s="503"/>
-      <c r="H22" s="507"/>
-      <c r="I22" s="504"/>
+      <c r="A22" s="515"/>
+      <c r="B22" s="514"/>
+      <c r="C22" s="516"/>
+      <c r="D22" s="515"/>
+      <c r="E22" s="514"/>
+      <c r="F22" s="513"/>
+      <c r="G22" s="513"/>
+      <c r="H22" s="517"/>
+      <c r="I22" s="514"/>
       <c r="J22" s="157" t="s">
         <v>853</v>
       </c>
@@ -60075,15 +60075,15 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="505"/>
-      <c r="B23" s="504"/>
-      <c r="C23" s="506"/>
-      <c r="D23" s="505"/>
-      <c r="E23" s="504"/>
-      <c r="F23" s="503"/>
-      <c r="G23" s="503"/>
-      <c r="H23" s="507"/>
-      <c r="I23" s="504"/>
+      <c r="A23" s="515"/>
+      <c r="B23" s="514"/>
+      <c r="C23" s="516"/>
+      <c r="D23" s="515"/>
+      <c r="E23" s="514"/>
+      <c r="F23" s="513"/>
+      <c r="G23" s="513"/>
+      <c r="H23" s="517"/>
+      <c r="I23" s="514"/>
       <c r="J23" s="157" t="s">
         <v>854</v>
       </c>
@@ -60092,15 +60092,15 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="505"/>
-      <c r="B24" s="504"/>
-      <c r="C24" s="506"/>
-      <c r="D24" s="505"/>
-      <c r="E24" s="504"/>
-      <c r="F24" s="503"/>
-      <c r="G24" s="503"/>
-      <c r="H24" s="507"/>
-      <c r="I24" s="504"/>
+      <c r="A24" s="515"/>
+      <c r="B24" s="514"/>
+      <c r="C24" s="516"/>
+      <c r="D24" s="515"/>
+      <c r="E24" s="514"/>
+      <c r="F24" s="513"/>
+      <c r="G24" s="513"/>
+      <c r="H24" s="517"/>
+      <c r="I24" s="514"/>
       <c r="J24" s="157" t="s">
         <v>855</v>
       </c>
@@ -60109,15 +60109,15 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="505"/>
-      <c r="B25" s="504"/>
-      <c r="C25" s="506"/>
-      <c r="D25" s="505"/>
-      <c r="E25" s="504"/>
-      <c r="F25" s="503"/>
-      <c r="G25" s="503"/>
-      <c r="H25" s="507"/>
-      <c r="I25" s="504"/>
+      <c r="A25" s="515"/>
+      <c r="B25" s="514"/>
+      <c r="C25" s="516"/>
+      <c r="D25" s="515"/>
+      <c r="E25" s="514"/>
+      <c r="F25" s="513"/>
+      <c r="G25" s="513"/>
+      <c r="H25" s="517"/>
+      <c r="I25" s="514"/>
       <c r="J25" s="157" t="s">
         <v>856</v>
       </c>
@@ -60126,15 +60126,15 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="505"/>
-      <c r="B26" s="504"/>
-      <c r="C26" s="506"/>
-      <c r="D26" s="505"/>
-      <c r="E26" s="504"/>
-      <c r="F26" s="503"/>
-      <c r="G26" s="503"/>
-      <c r="H26" s="507"/>
-      <c r="I26" s="504"/>
+      <c r="A26" s="515"/>
+      <c r="B26" s="514"/>
+      <c r="C26" s="516"/>
+      <c r="D26" s="515"/>
+      <c r="E26" s="514"/>
+      <c r="F26" s="513"/>
+      <c r="G26" s="513"/>
+      <c r="H26" s="517"/>
+      <c r="I26" s="514"/>
       <c r="J26" s="157" t="s">
         <v>857</v>
       </c>
@@ -60143,15 +60143,15 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="505"/>
-      <c r="B27" s="504"/>
-      <c r="C27" s="506"/>
-      <c r="D27" s="505"/>
-      <c r="E27" s="504"/>
-      <c r="F27" s="503"/>
-      <c r="G27" s="503"/>
-      <c r="H27" s="507"/>
-      <c r="I27" s="504"/>
+      <c r="A27" s="515"/>
+      <c r="B27" s="514"/>
+      <c r="C27" s="516"/>
+      <c r="D27" s="515"/>
+      <c r="E27" s="514"/>
+      <c r="F27" s="513"/>
+      <c r="G27" s="513"/>
+      <c r="H27" s="517"/>
+      <c r="I27" s="514"/>
       <c r="J27" s="157" t="s">
         <v>858</v>
       </c>
@@ -60160,15 +60160,15 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="505"/>
-      <c r="B28" s="504"/>
-      <c r="C28" s="506"/>
-      <c r="D28" s="505"/>
-      <c r="E28" s="504"/>
-      <c r="F28" s="503"/>
-      <c r="G28" s="503"/>
-      <c r="H28" s="507"/>
-      <c r="I28" s="504"/>
+      <c r="A28" s="515"/>
+      <c r="B28" s="514"/>
+      <c r="C28" s="516"/>
+      <c r="D28" s="515"/>
+      <c r="E28" s="514"/>
+      <c r="F28" s="513"/>
+      <c r="G28" s="513"/>
+      <c r="H28" s="517"/>
+      <c r="I28" s="514"/>
       <c r="J28" s="157" t="s">
         <v>859</v>
       </c>
@@ -60177,15 +60177,15 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A29" s="494"/>
-      <c r="B29" s="496"/>
-      <c r="C29" s="498"/>
-      <c r="D29" s="494"/>
-      <c r="E29" s="496"/>
-      <c r="F29" s="500"/>
-      <c r="G29" s="500"/>
-      <c r="H29" s="502"/>
-      <c r="I29" s="496"/>
+      <c r="A29" s="507"/>
+      <c r="B29" s="503"/>
+      <c r="C29" s="505"/>
+      <c r="D29" s="507"/>
+      <c r="E29" s="503"/>
+      <c r="F29" s="501"/>
+      <c r="G29" s="501"/>
+      <c r="H29" s="509"/>
+      <c r="I29" s="503"/>
       <c r="J29" s="158" t="s">
         <v>860</v>
       </c>
@@ -60223,29 +60223,29 @@
       <c r="K30" s="229"/>
     </row>
     <row r="31" spans="1:11" ht="25.5">
-      <c r="A31" s="493">
+      <c r="A31" s="506">
         <v>14</v>
       </c>
-      <c r="B31" s="495">
+      <c r="B31" s="502">
         <v>115</v>
       </c>
-      <c r="C31" s="497" t="s">
+      <c r="C31" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="493">
+      <c r="D31" s="506">
         <v>117</v>
       </c>
-      <c r="E31" s="495">
+      <c r="E31" s="502">
         <v>3</v>
       </c>
-      <c r="F31" s="499"/>
-      <c r="G31" s="499" t="s">
+      <c r="F31" s="500"/>
+      <c r="G31" s="500" t="s">
         <v>842</v>
       </c>
-      <c r="H31" s="501" t="s">
+      <c r="H31" s="508" t="s">
         <v>842</v>
       </c>
-      <c r="I31" s="495" t="s">
+      <c r="I31" s="502" t="s">
         <v>831</v>
       </c>
       <c r="J31" s="156" t="s">
@@ -60256,15 +60256,15 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="505"/>
-      <c r="B32" s="504"/>
-      <c r="C32" s="506"/>
-      <c r="D32" s="505"/>
-      <c r="E32" s="504"/>
-      <c r="F32" s="503"/>
-      <c r="G32" s="503"/>
-      <c r="H32" s="507"/>
-      <c r="I32" s="504"/>
+      <c r="A32" s="515"/>
+      <c r="B32" s="514"/>
+      <c r="C32" s="516"/>
+      <c r="D32" s="515"/>
+      <c r="E32" s="514"/>
+      <c r="F32" s="513"/>
+      <c r="G32" s="513"/>
+      <c r="H32" s="517"/>
+      <c r="I32" s="514"/>
       <c r="J32" s="161" t="s">
         <v>861</v>
       </c>
@@ -60273,15 +60273,15 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="505"/>
-      <c r="B33" s="504"/>
-      <c r="C33" s="506"/>
-      <c r="D33" s="505"/>
-      <c r="E33" s="504"/>
-      <c r="F33" s="503"/>
-      <c r="G33" s="503"/>
-      <c r="H33" s="507"/>
-      <c r="I33" s="504"/>
+      <c r="A33" s="515"/>
+      <c r="B33" s="514"/>
+      <c r="C33" s="516"/>
+      <c r="D33" s="515"/>
+      <c r="E33" s="514"/>
+      <c r="F33" s="513"/>
+      <c r="G33" s="513"/>
+      <c r="H33" s="517"/>
+      <c r="I33" s="514"/>
       <c r="J33" s="162" t="s">
         <v>862</v>
       </c>
@@ -60290,15 +60290,15 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A34" s="494"/>
-      <c r="B34" s="496"/>
-      <c r="C34" s="498"/>
-      <c r="D34" s="494"/>
-      <c r="E34" s="496"/>
-      <c r="F34" s="500"/>
-      <c r="G34" s="500"/>
-      <c r="H34" s="502"/>
-      <c r="I34" s="496"/>
+      <c r="A34" s="507"/>
+      <c r="B34" s="503"/>
+      <c r="C34" s="505"/>
+      <c r="D34" s="507"/>
+      <c r="E34" s="503"/>
+      <c r="F34" s="501"/>
+      <c r="G34" s="501"/>
+      <c r="H34" s="509"/>
+      <c r="I34" s="503"/>
       <c r="J34" s="163" t="s">
         <v>844</v>
       </c>
@@ -60336,29 +60336,29 @@
       <c r="K35" s="229"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="493">
+      <c r="A36" s="506">
         <v>16</v>
       </c>
-      <c r="B36" s="495">
+      <c r="B36" s="502">
         <v>121</v>
       </c>
-      <c r="C36" s="497" t="s">
+      <c r="C36" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="493">
+      <c r="D36" s="506">
         <v>132</v>
       </c>
-      <c r="E36" s="495">
+      <c r="E36" s="502">
         <v>12</v>
       </c>
-      <c r="F36" s="499"/>
-      <c r="G36" s="499" t="s">
+      <c r="F36" s="500"/>
+      <c r="G36" s="500" t="s">
         <v>845</v>
       </c>
-      <c r="H36" s="501" t="s">
+      <c r="H36" s="508" t="s">
         <v>1462</v>
       </c>
-      <c r="I36" s="495" t="s">
+      <c r="I36" s="502" t="s">
         <v>846</v>
       </c>
       <c r="J36" s="156" t="s">
@@ -60369,15 +60369,15 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A37" s="494"/>
-      <c r="B37" s="496"/>
-      <c r="C37" s="498"/>
-      <c r="D37" s="494"/>
-      <c r="E37" s="496"/>
-      <c r="F37" s="500"/>
-      <c r="G37" s="500"/>
-      <c r="H37" s="502"/>
-      <c r="I37" s="496"/>
+      <c r="A37" s="507"/>
+      <c r="B37" s="503"/>
+      <c r="C37" s="505"/>
+      <c r="D37" s="507"/>
+      <c r="E37" s="503"/>
+      <c r="F37" s="501"/>
+      <c r="G37" s="501"/>
+      <c r="H37" s="509"/>
+      <c r="I37" s="503"/>
       <c r="J37" s="155" t="s">
         <v>848</v>
       </c>
@@ -60415,29 +60415,29 @@
       <c r="K38" s="229"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="493">
+      <c r="A39" s="506">
         <v>18</v>
       </c>
-      <c r="B39" s="495">
+      <c r="B39" s="502">
         <v>136</v>
       </c>
-      <c r="C39" s="497" t="s">
+      <c r="C39" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="493">
+      <c r="D39" s="506">
         <v>145</v>
       </c>
-      <c r="E39" s="495">
+      <c r="E39" s="502">
         <v>10</v>
       </c>
-      <c r="F39" s="499"/>
-      <c r="G39" s="499" t="s">
+      <c r="F39" s="500"/>
+      <c r="G39" s="500" t="s">
         <v>849</v>
       </c>
-      <c r="H39" s="501" t="s">
+      <c r="H39" s="508" t="s">
         <v>1465</v>
       </c>
-      <c r="I39" s="495" t="s">
+      <c r="I39" s="502" t="s">
         <v>850</v>
       </c>
       <c r="J39" s="156" t="s">
@@ -60448,15 +60448,15 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A40" s="494"/>
-      <c r="B40" s="496"/>
-      <c r="C40" s="498"/>
-      <c r="D40" s="494"/>
-      <c r="E40" s="496"/>
-      <c r="F40" s="500"/>
-      <c r="G40" s="500"/>
-      <c r="H40" s="502"/>
-      <c r="I40" s="496"/>
+      <c r="A40" s="507"/>
+      <c r="B40" s="503"/>
+      <c r="C40" s="505"/>
+      <c r="D40" s="507"/>
+      <c r="E40" s="503"/>
+      <c r="F40" s="501"/>
+      <c r="G40" s="501"/>
+      <c r="H40" s="509"/>
+      <c r="I40" s="503"/>
       <c r="J40" s="155" t="s">
         <v>852</v>
       </c>
@@ -60494,29 +60494,29 @@
       <c r="K41" s="229"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="493">
+      <c r="A42" s="506">
         <v>20</v>
       </c>
-      <c r="B42" s="495">
+      <c r="B42" s="502">
         <v>150</v>
       </c>
-      <c r="C42" s="497" t="s">
+      <c r="C42" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="493">
+      <c r="D42" s="506">
         <v>157</v>
       </c>
-      <c r="E42" s="495">
+      <c r="E42" s="502">
         <v>8</v>
       </c>
-      <c r="F42" s="499"/>
-      <c r="G42" s="499" t="s">
+      <c r="F42" s="500"/>
+      <c r="G42" s="500" t="s">
         <v>865</v>
       </c>
-      <c r="H42" s="501" t="s">
+      <c r="H42" s="508" t="s">
         <v>1468</v>
       </c>
-      <c r="I42" s="495" t="s">
+      <c r="I42" s="502" t="s">
         <v>866</v>
       </c>
       <c r="J42" s="164" t="s">
@@ -60527,15 +60527,15 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A43" s="494"/>
-      <c r="B43" s="496"/>
-      <c r="C43" s="498"/>
-      <c r="D43" s="494"/>
-      <c r="E43" s="496"/>
-      <c r="F43" s="500"/>
-      <c r="G43" s="500"/>
-      <c r="H43" s="502"/>
-      <c r="I43" s="496"/>
+      <c r="A43" s="507"/>
+      <c r="B43" s="503"/>
+      <c r="C43" s="505"/>
+      <c r="D43" s="507"/>
+      <c r="E43" s="503"/>
+      <c r="F43" s="501"/>
+      <c r="G43" s="501"/>
+      <c r="H43" s="509"/>
+      <c r="I43" s="503"/>
       <c r="J43" s="155" t="s">
         <v>868</v>
       </c>
@@ -60573,29 +60573,29 @@
       <c r="K44" s="229"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="493">
+      <c r="A45" s="506">
         <v>22</v>
       </c>
-      <c r="B45" s="495">
+      <c r="B45" s="502">
         <v>159</v>
       </c>
-      <c r="C45" s="497" t="s">
+      <c r="C45" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="493">
+      <c r="D45" s="506">
         <v>166</v>
       </c>
-      <c r="E45" s="495">
+      <c r="E45" s="502">
         <v>8</v>
       </c>
-      <c r="F45" s="499"/>
-      <c r="G45" s="499" t="s">
+      <c r="F45" s="500"/>
+      <c r="G45" s="500" t="s">
         <v>869</v>
       </c>
-      <c r="H45" s="501" t="s">
+      <c r="H45" s="508" t="s">
         <v>1471</v>
       </c>
-      <c r="I45" s="495" t="s">
+      <c r="I45" s="502" t="s">
         <v>866</v>
       </c>
       <c r="J45" s="156" t="s">
@@ -60606,15 +60606,15 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A46" s="494"/>
-      <c r="B46" s="496"/>
-      <c r="C46" s="498"/>
-      <c r="D46" s="494"/>
-      <c r="E46" s="496"/>
-      <c r="F46" s="500"/>
-      <c r="G46" s="500"/>
-      <c r="H46" s="502"/>
-      <c r="I46" s="496"/>
+      <c r="A46" s="507"/>
+      <c r="B46" s="503"/>
+      <c r="C46" s="505"/>
+      <c r="D46" s="507"/>
+      <c r="E46" s="503"/>
+      <c r="F46" s="501"/>
+      <c r="G46" s="501"/>
+      <c r="H46" s="509"/>
+      <c r="I46" s="503"/>
       <c r="J46" s="155" t="s">
         <v>870</v>
       </c>
@@ -60652,29 +60652,29 @@
       <c r="K47" s="229"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="493">
+      <c r="A48" s="506">
         <v>24</v>
       </c>
-      <c r="B48" s="495">
+      <c r="B48" s="502">
         <v>170</v>
       </c>
-      <c r="C48" s="497" t="s">
+      <c r="C48" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="493">
+      <c r="D48" s="506">
         <v>173</v>
       </c>
-      <c r="E48" s="495">
+      <c r="E48" s="502">
         <v>4</v>
       </c>
-      <c r="F48" s="499"/>
-      <c r="G48" s="499" t="s">
+      <c r="F48" s="500"/>
+      <c r="G48" s="500" t="s">
         <v>871</v>
       </c>
-      <c r="H48" s="501" t="s">
+      <c r="H48" s="508" t="s">
         <v>1473</v>
       </c>
-      <c r="I48" s="495" t="s">
+      <c r="I48" s="502" t="s">
         <v>820</v>
       </c>
       <c r="J48" s="156" t="s">
@@ -60685,15 +60685,15 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A49" s="494"/>
-      <c r="B49" s="496"/>
-      <c r="C49" s="498"/>
-      <c r="D49" s="494"/>
-      <c r="E49" s="496"/>
-      <c r="F49" s="500"/>
-      <c r="G49" s="500"/>
-      <c r="H49" s="502"/>
-      <c r="I49" s="496"/>
+      <c r="A49" s="507"/>
+      <c r="B49" s="503"/>
+      <c r="C49" s="505"/>
+      <c r="D49" s="507"/>
+      <c r="E49" s="503"/>
+      <c r="F49" s="501"/>
+      <c r="G49" s="501"/>
+      <c r="H49" s="509"/>
+      <c r="I49" s="503"/>
       <c r="J49" s="155" t="s">
         <v>873</v>
       </c>
@@ -60731,29 +60731,29 @@
       <c r="K50" s="229"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="493">
+      <c r="A51" s="506">
         <v>26</v>
       </c>
-      <c r="B51" s="495">
+      <c r="B51" s="502">
         <v>176</v>
       </c>
-      <c r="C51" s="497" t="s">
+      <c r="C51" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="493">
+      <c r="D51" s="506">
         <v>179</v>
       </c>
-      <c r="E51" s="495">
+      <c r="E51" s="502">
         <v>4</v>
       </c>
-      <c r="F51" s="499"/>
-      <c r="G51" s="499" t="s">
+      <c r="F51" s="500"/>
+      <c r="G51" s="500" t="s">
         <v>874</v>
       </c>
-      <c r="H51" s="501" t="s">
+      <c r="H51" s="508" t="s">
         <v>1476</v>
       </c>
-      <c r="I51" s="495" t="s">
+      <c r="I51" s="502" t="s">
         <v>820</v>
       </c>
       <c r="J51" s="156" t="s">
@@ -60764,15 +60764,15 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A52" s="494"/>
-      <c r="B52" s="496"/>
-      <c r="C52" s="498"/>
-      <c r="D52" s="494"/>
-      <c r="E52" s="496"/>
-      <c r="F52" s="500"/>
-      <c r="G52" s="500"/>
-      <c r="H52" s="502"/>
-      <c r="I52" s="496"/>
+      <c r="A52" s="507"/>
+      <c r="B52" s="503"/>
+      <c r="C52" s="505"/>
+      <c r="D52" s="507"/>
+      <c r="E52" s="503"/>
+      <c r="F52" s="501"/>
+      <c r="G52" s="501"/>
+      <c r="H52" s="509"/>
+      <c r="I52" s="503"/>
       <c r="J52" s="155" t="s">
         <v>876</v>
       </c>
@@ -60810,29 +60810,29 @@
       <c r="K53" s="229"/>
     </row>
     <row r="54" spans="1:11" ht="51">
-      <c r="A54" s="493">
+      <c r="A54" s="506">
         <v>28</v>
       </c>
-      <c r="B54" s="495">
+      <c r="B54" s="502">
         <v>181</v>
       </c>
-      <c r="C54" s="497" t="s">
+      <c r="C54" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="493">
+      <c r="D54" s="506">
         <v>190</v>
       </c>
-      <c r="E54" s="495">
+      <c r="E54" s="502">
         <v>10</v>
       </c>
-      <c r="F54" s="499"/>
-      <c r="G54" s="499" t="s">
+      <c r="F54" s="500"/>
+      <c r="G54" s="500" t="s">
         <v>877</v>
       </c>
-      <c r="H54" s="501" t="s">
+      <c r="H54" s="508" t="s">
         <v>1479</v>
       </c>
-      <c r="I54" s="495" t="s">
+      <c r="I54" s="502" t="s">
         <v>850</v>
       </c>
       <c r="J54" s="156" t="s">
@@ -60843,15 +60843,15 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A55" s="494"/>
-      <c r="B55" s="496"/>
-      <c r="C55" s="498"/>
-      <c r="D55" s="494"/>
-      <c r="E55" s="496"/>
-      <c r="F55" s="500"/>
-      <c r="G55" s="500"/>
-      <c r="H55" s="502"/>
-      <c r="I55" s="496"/>
+      <c r="A55" s="507"/>
+      <c r="B55" s="503"/>
+      <c r="C55" s="505"/>
+      <c r="D55" s="507"/>
+      <c r="E55" s="503"/>
+      <c r="F55" s="501"/>
+      <c r="G55" s="501"/>
+      <c r="H55" s="509"/>
+      <c r="I55" s="503"/>
       <c r="J55" s="155" t="s">
         <v>879</v>
       </c>
@@ -60951,27 +60951,27 @@
       <c r="K58" s="229"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="499">
+      <c r="A59" s="500">
         <v>32</v>
       </c>
-      <c r="B59" s="495">
+      <c r="B59" s="502">
         <v>201</v>
       </c>
-      <c r="C59" s="499"/>
-      <c r="D59" s="493">
+      <c r="C59" s="500"/>
+      <c r="D59" s="506">
         <v>206</v>
       </c>
-      <c r="E59" s="495">
+      <c r="E59" s="502">
         <v>6</v>
       </c>
-      <c r="F59" s="499"/>
-      <c r="G59" s="499" t="s">
+      <c r="F59" s="500"/>
+      <c r="G59" s="500" t="s">
         <v>882</v>
       </c>
-      <c r="H59" s="501" t="s">
+      <c r="H59" s="508" t="s">
         <v>1231</v>
       </c>
-      <c r="I59" s="495" t="s">
+      <c r="I59" s="502" t="s">
         <v>24</v>
       </c>
       <c r="J59" s="156" t="s">
@@ -60982,15 +60982,15 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A60" s="500"/>
-      <c r="B60" s="496"/>
-      <c r="C60" s="500"/>
-      <c r="D60" s="494"/>
-      <c r="E60" s="496"/>
-      <c r="F60" s="500"/>
-      <c r="G60" s="500"/>
-      <c r="H60" s="502"/>
-      <c r="I60" s="496"/>
+      <c r="A60" s="501"/>
+      <c r="B60" s="503"/>
+      <c r="C60" s="501"/>
+      <c r="D60" s="507"/>
+      <c r="E60" s="503"/>
+      <c r="F60" s="501"/>
+      <c r="G60" s="501"/>
+      <c r="H60" s="509"/>
+      <c r="I60" s="503"/>
       <c r="J60" s="155" t="s">
         <v>883</v>
       </c>
@@ -61026,27 +61026,27 @@
       <c r="K61" s="229"/>
     </row>
     <row r="62" spans="1:11" ht="25.5">
-      <c r="A62" s="499">
+      <c r="A62" s="500">
         <v>34</v>
       </c>
-      <c r="B62" s="495">
+      <c r="B62" s="502">
         <v>209</v>
       </c>
-      <c r="C62" s="499"/>
-      <c r="D62" s="493">
+      <c r="C62" s="500"/>
+      <c r="D62" s="506">
         <v>210</v>
       </c>
-      <c r="E62" s="495">
+      <c r="E62" s="502">
         <v>2</v>
       </c>
-      <c r="F62" s="499"/>
-      <c r="G62" s="499" t="s">
+      <c r="F62" s="500"/>
+      <c r="G62" s="500" t="s">
         <v>884</v>
       </c>
-      <c r="H62" s="501" t="s">
+      <c r="H62" s="508" t="s">
         <v>1486</v>
       </c>
-      <c r="I62" s="495" t="s">
+      <c r="I62" s="502" t="s">
         <v>50</v>
       </c>
       <c r="J62" s="156" t="s">
@@ -61057,15 +61057,15 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A63" s="500"/>
-      <c r="B63" s="496"/>
-      <c r="C63" s="500"/>
-      <c r="D63" s="494"/>
-      <c r="E63" s="496"/>
-      <c r="F63" s="500"/>
-      <c r="G63" s="500"/>
-      <c r="H63" s="502"/>
-      <c r="I63" s="496"/>
+      <c r="A63" s="501"/>
+      <c r="B63" s="503"/>
+      <c r="C63" s="501"/>
+      <c r="D63" s="507"/>
+      <c r="E63" s="503"/>
+      <c r="F63" s="501"/>
+      <c r="G63" s="501"/>
+      <c r="H63" s="509"/>
+      <c r="I63" s="503"/>
       <c r="J63" s="155" t="s">
         <v>885</v>
       </c>
@@ -61101,27 +61101,27 @@
       <c r="K64" s="229"/>
     </row>
     <row r="65" spans="1:11" ht="38.25">
-      <c r="A65" s="499">
+      <c r="A65" s="500">
         <v>36</v>
       </c>
-      <c r="B65" s="495">
+      <c r="B65" s="502">
         <v>213</v>
       </c>
-      <c r="C65" s="499"/>
-      <c r="D65" s="493">
+      <c r="C65" s="500"/>
+      <c r="D65" s="506">
         <v>225</v>
       </c>
-      <c r="E65" s="495">
+      <c r="E65" s="502">
         <v>13</v>
       </c>
-      <c r="F65" s="499"/>
-      <c r="G65" s="499" t="s">
+      <c r="F65" s="500"/>
+      <c r="G65" s="500" t="s">
         <v>886</v>
       </c>
-      <c r="H65" s="501" t="s">
+      <c r="H65" s="508" t="s">
         <v>1489</v>
       </c>
-      <c r="I65" s="495" t="s">
+      <c r="I65" s="502" t="s">
         <v>33</v>
       </c>
       <c r="J65" s="156" t="s">
@@ -61132,15 +61132,15 @@
       </c>
     </row>
     <row r="66" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A66" s="500"/>
-      <c r="B66" s="496"/>
-      <c r="C66" s="500"/>
-      <c r="D66" s="494"/>
-      <c r="E66" s="496"/>
-      <c r="F66" s="500"/>
-      <c r="G66" s="500"/>
-      <c r="H66" s="502"/>
-      <c r="I66" s="496"/>
+      <c r="A66" s="501"/>
+      <c r="B66" s="503"/>
+      <c r="C66" s="501"/>
+      <c r="D66" s="507"/>
+      <c r="E66" s="503"/>
+      <c r="F66" s="501"/>
+      <c r="G66" s="501"/>
+      <c r="H66" s="509"/>
+      <c r="I66" s="503"/>
       <c r="J66" s="155" t="s">
         <v>887</v>
       </c>
@@ -61176,27 +61176,27 @@
       <c r="K67" s="229"/>
     </row>
     <row r="68" spans="1:11" ht="38.25">
-      <c r="A68" s="499">
+      <c r="A68" s="500">
         <v>38</v>
       </c>
-      <c r="B68" s="495">
+      <c r="B68" s="502">
         <v>228</v>
       </c>
-      <c r="C68" s="499"/>
-      <c r="D68" s="493">
+      <c r="C68" s="500"/>
+      <c r="D68" s="506">
         <v>230</v>
       </c>
-      <c r="E68" s="495">
+      <c r="E68" s="502">
         <v>3</v>
       </c>
-      <c r="F68" s="499"/>
-      <c r="G68" s="499" t="s">
+      <c r="F68" s="500"/>
+      <c r="G68" s="500" t="s">
         <v>888</v>
       </c>
-      <c r="H68" s="501" t="s">
+      <c r="H68" s="508" t="s">
         <v>1492</v>
       </c>
-      <c r="I68" s="495" t="s">
+      <c r="I68" s="502" t="s">
         <v>114</v>
       </c>
       <c r="J68" s="156" t="s">
@@ -61207,15 +61207,15 @@
       </c>
     </row>
     <row r="69" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A69" s="500"/>
-      <c r="B69" s="496"/>
-      <c r="C69" s="500"/>
-      <c r="D69" s="494"/>
-      <c r="E69" s="496"/>
-      <c r="F69" s="500"/>
-      <c r="G69" s="500"/>
-      <c r="H69" s="502"/>
-      <c r="I69" s="496"/>
+      <c r="A69" s="501"/>
+      <c r="B69" s="503"/>
+      <c r="C69" s="501"/>
+      <c r="D69" s="507"/>
+      <c r="E69" s="503"/>
+      <c r="F69" s="501"/>
+      <c r="G69" s="501"/>
+      <c r="H69" s="509"/>
+      <c r="I69" s="503"/>
       <c r="J69" s="155" t="s">
         <v>889</v>
       </c>
@@ -61251,27 +61251,27 @@
       <c r="K70" s="229"/>
     </row>
     <row r="71" spans="1:11" ht="25.5">
-      <c r="A71" s="499">
+      <c r="A71" s="500">
         <v>40</v>
       </c>
-      <c r="B71" s="495">
+      <c r="B71" s="502">
         <v>233</v>
       </c>
-      <c r="C71" s="499"/>
-      <c r="D71" s="493">
+      <c r="C71" s="500"/>
+      <c r="D71" s="506">
         <v>242</v>
       </c>
-      <c r="E71" s="495">
+      <c r="E71" s="502">
         <v>10</v>
       </c>
-      <c r="F71" s="499"/>
-      <c r="G71" s="499" t="s">
+      <c r="F71" s="500"/>
+      <c r="G71" s="500" t="s">
         <v>904</v>
       </c>
-      <c r="H71" s="501" t="s">
+      <c r="H71" s="508" t="s">
         <v>1495</v>
       </c>
-      <c r="I71" s="495" t="s">
+      <c r="I71" s="502" t="s">
         <v>9</v>
       </c>
       <c r="J71" s="156" t="s">
@@ -61282,15 +61282,15 @@
       </c>
     </row>
     <row r="72" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A72" s="500"/>
-      <c r="B72" s="496"/>
-      <c r="C72" s="500"/>
-      <c r="D72" s="494"/>
-      <c r="E72" s="496"/>
-      <c r="F72" s="500"/>
-      <c r="G72" s="500"/>
-      <c r="H72" s="502"/>
-      <c r="I72" s="496"/>
+      <c r="A72" s="501"/>
+      <c r="B72" s="503"/>
+      <c r="C72" s="501"/>
+      <c r="D72" s="507"/>
+      <c r="E72" s="503"/>
+      <c r="F72" s="501"/>
+      <c r="G72" s="501"/>
+      <c r="H72" s="509"/>
+      <c r="I72" s="503"/>
       <c r="J72" s="155" t="s">
         <v>890</v>
       </c>
@@ -61328,29 +61328,29 @@
       <c r="K73" s="229"/>
     </row>
     <row r="74" spans="1:11" ht="25.5">
-      <c r="A74" s="499">
+      <c r="A74" s="500">
         <v>34</v>
       </c>
-      <c r="B74" s="495">
+      <c r="B74" s="502">
         <v>245</v>
       </c>
-      <c r="C74" s="497" t="s">
+      <c r="C74" s="504" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="493">
+      <c r="D74" s="506">
         <v>254</v>
       </c>
-      <c r="E74" s="495">
+      <c r="E74" s="502">
         <v>10</v>
       </c>
-      <c r="F74" s="499"/>
-      <c r="G74" s="499" t="s">
+      <c r="F74" s="500"/>
+      <c r="G74" s="500" t="s">
         <v>891</v>
       </c>
-      <c r="H74" s="501" t="s">
+      <c r="H74" s="508" t="s">
         <v>1498</v>
       </c>
-      <c r="I74" s="495" t="s">
+      <c r="I74" s="502" t="s">
         <v>850</v>
       </c>
       <c r="J74" s="156" t="s">
@@ -61361,15 +61361,15 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A75" s="500"/>
-      <c r="B75" s="496"/>
-      <c r="C75" s="498"/>
-      <c r="D75" s="494"/>
-      <c r="E75" s="496"/>
-      <c r="F75" s="500"/>
-      <c r="G75" s="500"/>
-      <c r="H75" s="502"/>
-      <c r="I75" s="496"/>
+      <c r="A75" s="501"/>
+      <c r="B75" s="503"/>
+      <c r="C75" s="505"/>
+      <c r="D75" s="507"/>
+      <c r="E75" s="503"/>
+      <c r="F75" s="501"/>
+      <c r="G75" s="501"/>
+      <c r="H75" s="509"/>
+      <c r="I75" s="503"/>
       <c r="J75" s="155" t="s">
         <v>893</v>
       </c>
@@ -61407,29 +61407,29 @@
       <c r="K76" s="230"/>
     </row>
     <row r="77" spans="1:11" ht="25.5">
-      <c r="A77" s="514">
+      <c r="A77" s="494">
         <v>36</v>
       </c>
-      <c r="B77" s="511">
+      <c r="B77" s="491">
         <v>257</v>
       </c>
-      <c r="C77" s="517" t="s">
+      <c r="C77" s="497" t="s">
         <v>8</v>
       </c>
-      <c r="D77" s="511">
+      <c r="D77" s="491">
         <v>260</v>
       </c>
-      <c r="E77" s="511">
+      <c r="E77" s="491">
         <v>4</v>
       </c>
-      <c r="F77" s="511"/>
-      <c r="G77" s="508" t="s">
+      <c r="F77" s="491"/>
+      <c r="G77" s="488" t="s">
         <v>894</v>
       </c>
-      <c r="H77" s="520" t="s">
+      <c r="H77" s="510" t="s">
         <v>894</v>
       </c>
-      <c r="I77" s="511" t="s">
+      <c r="I77" s="491" t="s">
         <v>820</v>
       </c>
       <c r="J77" s="168" t="s">
@@ -61440,15 +61440,15 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="515"/>
-      <c r="B78" s="512"/>
-      <c r="C78" s="518"/>
-      <c r="D78" s="512"/>
-      <c r="E78" s="512"/>
-      <c r="F78" s="512"/>
-      <c r="G78" s="509"/>
-      <c r="H78" s="521"/>
-      <c r="I78" s="512"/>
+      <c r="A78" s="495"/>
+      <c r="B78" s="492"/>
+      <c r="C78" s="498"/>
+      <c r="D78" s="492"/>
+      <c r="E78" s="492"/>
+      <c r="F78" s="492"/>
+      <c r="G78" s="489"/>
+      <c r="H78" s="511"/>
+      <c r="I78" s="492"/>
       <c r="J78" s="169" t="s">
         <v>902</v>
       </c>
@@ -61457,15 +61457,15 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A79" s="516"/>
-      <c r="B79" s="513"/>
-      <c r="C79" s="519"/>
-      <c r="D79" s="513"/>
-      <c r="E79" s="513"/>
-      <c r="F79" s="513"/>
-      <c r="G79" s="510"/>
-      <c r="H79" s="522"/>
-      <c r="I79" s="513"/>
+      <c r="A79" s="496"/>
+      <c r="B79" s="493"/>
+      <c r="C79" s="499"/>
+      <c r="D79" s="493"/>
+      <c r="E79" s="493"/>
+      <c r="F79" s="493"/>
+      <c r="G79" s="490"/>
+      <c r="H79" s="512"/>
+      <c r="I79" s="493"/>
       <c r="J79" s="170" t="s">
         <v>903</v>
       </c>
@@ -61504,6 +61504,179 @@
     </row>
   </sheetData>
   <mergeCells count="191">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G20:G29"/>
+    <mergeCell ref="I20:I29"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="A20:A29"/>
+    <mergeCell ref="B20:B29"/>
+    <mergeCell ref="C20:C29"/>
+    <mergeCell ref="D20:D29"/>
+    <mergeCell ref="E20:E29"/>
+    <mergeCell ref="F20:F29"/>
+    <mergeCell ref="H20:H29"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H71:H72"/>
     <mergeCell ref="G74:G75"/>
     <mergeCell ref="I74:I75"/>
     <mergeCell ref="A77:A79"/>
@@ -61522,179 +61695,6 @@
     <mergeCell ref="F74:F75"/>
     <mergeCell ref="H74:H75"/>
     <mergeCell ref="H77:H79"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="G20:G29"/>
-    <mergeCell ref="I20:I29"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="A20:A29"/>
-    <mergeCell ref="B20:B29"/>
-    <mergeCell ref="C20:C29"/>
-    <mergeCell ref="D20:D29"/>
-    <mergeCell ref="E20:E29"/>
-    <mergeCell ref="F20:F29"/>
-    <mergeCell ref="H20:H29"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
